--- a/Data/Output/results_.xlsx
+++ b/Data/Output/results_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <x:si>
     <x:t>Account #</x:t>
   </x:si>
@@ -124,7 +124,7 @@
     <x:t>Presales Checking Account</x:t>
   </x:si>
   <x:si>
-    <x:t>-2350.98</x:t>
+    <x:t>-2550.98</x:t>
   </x:si>
   <x:si>
     <x:t>presalesadmin@uipath.com</x:t>
@@ -142,12 +142,24 @@
     <x:t>rick.crosby@uipath.com</x:t>
   </x:si>
   <x:si>
+    <x:t>70177042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Savings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 Mar 2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-200</x:t>
+  </x:si>
+  <x:si>
     <x:t>75634531</x:t>
   </x:si>
   <x:si>
-    <x:t>Savings</x:t>
-  </x:si>
-  <x:si>
     <x:t>20 Mar 2020</x:t>
   </x:si>
   <x:si>
@@ -158,6 +170,15 @@
   </x:si>
   <x:si>
     <x:t>robert.thullner@uipath.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>46027202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CreditCard</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-20</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -695,7 +716,53 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:7">
+      <x:c r="A9" s="0" t="s">
         <x:v>47</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:7">
+      <x:c r="A10" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
+        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
